--- a/data/xlsx/PrecioBlueDIario.xlsx
+++ b/data/xlsx/PrecioBlueDIario.xlsx
@@ -25,10 +25,10 @@
     <t>Venta</t>
   </si>
   <si>
-    <t>2023-01-30</t>
+    <t>2023-02-01</t>
   </si>
   <si>
-    <t>193.9</t>
+    <t>377.0</t>
   </si>
 </sst>
 </file>

--- a/data/xlsx/PrecioBlueDIario.xlsx
+++ b/data/xlsx/PrecioBlueDIario.xlsx
@@ -25,10 +25,10 @@
     <t>Venta</t>
   </si>
   <si>
-    <t>2023-02-01</t>
+    <t>2023-02-04</t>
   </si>
   <si>
-    <t>377.0</t>
+    <t>379.0</t>
   </si>
 </sst>
 </file>

--- a/data/xlsx/PrecioBlueDIario.xlsx
+++ b/data/xlsx/PrecioBlueDIario.xlsx
@@ -28,7 +28,7 @@
     <t>2023-02-04</t>
   </si>
   <si>
-    <t>379.0</t>
+    <t>195.4</t>
   </si>
 </sst>
 </file>

--- a/data/xlsx/PrecioBlueDIario.xlsx
+++ b/data/xlsx/PrecioBlueDIario.xlsx
@@ -28,7 +28,7 @@
     <t>2023-02-04</t>
   </si>
   <si>
-    <t>195.4</t>
+    <t>379.0</t>
   </si>
 </sst>
 </file>

--- a/data/xlsx/PrecioBlueDIario.xlsx
+++ b/data/xlsx/PrecioBlueDIario.xlsx
@@ -25,7 +25,7 @@
     <t>Venta</t>
   </si>
   <si>
-    <t>2023-02-04</t>
+    <t>2023-02-05</t>
   </si>
   <si>
     <t>379.0</t>
